--- a/src/assets/static/excels/Item_master.xlsx
+++ b/src/assets/static/excels/Item_master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="9915"/>
+    <workbookView windowWidth="21000" windowHeight="10335"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
   <si>
     <t>SNo</t>
   </si>
@@ -46,9 +46,6 @@
     <t>MRPRATE</t>
   </si>
   <si>
-    <t>NRV</t>
-  </si>
-  <si>
     <t>OURPRICE</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
   </si>
   <si>
     <t>522</t>
-  </si>
-  <si>
-    <t>0555</t>
   </si>
   <si>
     <t>55</t>
@@ -309,10 +303,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -330,11 +324,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,16 +353,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,13 +363,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,6 +383,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -406,8 +399,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,18 +431,25 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,29 +460,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -476,49 +470,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,18 +638,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -554,109 +650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,18 +667,16 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -744,6 +736,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -758,21 +761,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -790,130 +784,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1246,10 +1240,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1283,7 +1277,7 @@
     <col min="27" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1332,7 +1326,7 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -1344,1308 +1338,1248 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="2"/>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:26">
+    <row r="3" s="1" customFormat="1" spans="1:25">
       <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:26">
+    <row r="4" s="1" customFormat="1" spans="1:25">
       <c r="A4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="S4" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:26">
+    <row r="5" s="1" customFormat="1" spans="1:25">
       <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="K5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:26">
+    <row r="6" s="1" customFormat="1" spans="1:25">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="K6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:26">
+    <row r="7" s="1" customFormat="1" spans="1:25">
       <c r="A7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:26">
+    <row r="8" s="1" customFormat="1" spans="1:25">
       <c r="A8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="K8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:26">
+    <row r="9" s="1" customFormat="1" spans="1:25">
       <c r="A9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="K9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U9" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:26">
+    <row r="10" s="1" customFormat="1" spans="1:25">
       <c r="A10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="K10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U10" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:26">
+    <row r="11" s="1" customFormat="1" spans="1:25">
       <c r="A11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="K11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U11" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:26">
+    <row r="12" s="1" customFormat="1" spans="1:25">
       <c r="A12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="K12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U12" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:25">
       <c r="A13" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="K13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R13" s="2" t="s">
+      <c r="T13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:25">
       <c r="A14" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="H14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="K14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U14" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:20">
       <c r="A15" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="K15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>33</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U15" s="2" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:20">
       <c r="A16" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="K16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U16" s="2" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:20">
       <c r="A17" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="K17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U17" s="2" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:20">
       <c r="A18" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="K18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U18" s="2" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:20">
       <c r="A19" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="K19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U19" s="2" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:20">
       <c r="A20" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="K20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T20" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2656,7 +2590,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20">
       <formula1>"Packed,Loose,Combo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2 R13 R14 R3:R12 R15:R20 S2:S12 S13:S14 S15:S20 T2:T12 T13:T14 T15:T20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 Q13 Q14 Q3:Q12 Q15:Q20 R2:R12 R13:R14 R15:R20 S2:S12 S13:S14 S15:S20">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>
